--- a/ckd_dataset_original_uci_complete.xlsx
+++ b/ckd_dataset_original_uci_complete.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fit_fest_2025_entrepreneurchallenge\repo\CKDAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC20C7E-3EC7-4975-80B4-35816188D830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EACC2C02-BCAE-4A50-BC2C-D679AD5FBE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57908952-7294-4DB7-8E9B-CF45F2402D03}"/>
   </bookViews>
   <sheets>
     <sheet name="ckd_dataset_original_uci_comple" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ckd_dataset_original_uci_comple!$A$1:$AC$201</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1298,10 +1301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26CA1D3-5F59-4699-8149-51309988C90E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="K24" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4688,7 +4692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -6379,7 +6383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -7447,7 +7451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -7892,7 +7896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -8426,7 +8430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -8782,7 +8786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9138,7 +9142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -9405,7 +9409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9494,7 +9498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -9761,7 +9765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -10117,7 +10121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -10206,7 +10210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -10918,7 +10922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0</v>
       </c>
@@ -11096,7 +11100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -11185,7 +11189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0</v>
       </c>
@@ -11452,7 +11456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -11719,7 +11723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -11808,7 +11812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0</v>
       </c>
@@ -11897,7 +11901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -12075,7 +12079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0</v>
       </c>
@@ -12164,7 +12168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -12253,7 +12257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -12342,7 +12346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0</v>
       </c>
@@ -12609,7 +12613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
@@ -12787,7 +12791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -12876,7 +12880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -13054,7 +13058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0</v>
       </c>
@@ -13410,7 +13414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0</v>
       </c>
@@ -13499,7 +13503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -13766,7 +13770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -13855,7 +13859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0</v>
       </c>
@@ -14300,7 +14304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0</v>
       </c>
@@ -14389,7 +14393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -14478,7 +14482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0</v>
       </c>
@@ -14567,7 +14571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0</v>
       </c>
@@ -14656,7 +14660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0</v>
       </c>
@@ -14745,7 +14749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -14834,7 +14838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -14923,7 +14927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -15190,7 +15194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -15368,7 +15372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0</v>
       </c>
@@ -15546,7 +15550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -15635,7 +15639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0</v>
       </c>
@@ -15813,7 +15817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0</v>
       </c>
@@ -15902,7 +15906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0</v>
       </c>
@@ -16080,7 +16084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -16258,7 +16262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -16347,7 +16351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -16436,7 +16440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -16525,7 +16529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0</v>
       </c>
@@ -16614,7 +16618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0</v>
       </c>
@@ -16792,7 +16796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -16881,7 +16885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -16970,7 +16974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0</v>
       </c>
@@ -17237,7 +17241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -17326,7 +17330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -17415,7 +17419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -17504,7 +17508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -17593,7 +17597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -17682,7 +17686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0</v>
       </c>
@@ -17771,7 +17775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -17860,7 +17864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0</v>
       </c>
@@ -17949,7 +17953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -18216,7 +18220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0</v>
       </c>
@@ -18305,7 +18309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -18483,7 +18487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0</v>
       </c>
@@ -18572,7 +18576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0</v>
       </c>
@@ -18661,7 +18665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0</v>
       </c>
@@ -18750,7 +18754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -18839,7 +18843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0</v>
       </c>
@@ -19106,7 +19110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -19196,6 +19200,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC201" xr:uid="{D26CA1D3-5F59-4699-8149-51309988C90E}">
+    <filterColumn colId="28">
+      <filters>
+        <filter val="notckd"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>